--- a/bee_simulation_results_with_revisits.xlsx
+++ b/bee_simulation_results_with_revisits.xlsx
@@ -461,16 +461,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 3 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (-4, -4), (4, 12), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77.05240967118867</v>
+        <v>81.83703435555695</v>
       </c>
     </row>
     <row r="3">
@@ -479,16 +479,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 1 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (-4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>67.77708763999664</v>
+        <v>102.0090559675463</v>
       </c>
     </row>
     <row r="4">
@@ -497,16 +497,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (6, 5), (4, 12), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67.77708763999664</v>
+        <v>91.66352019776375</v>
       </c>
     </row>
     <row r="5">
@@ -515,16 +515,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67.77708763999664</v>
+        <v>83.66352019776376</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[(0, -12), (0, 20), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, 20), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>198.3277317023807</v>
+        <v>83.66352019776376</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (-4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>83.16386585119035</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="8">
@@ -569,16 +569,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77.05240967118867</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="9">
@@ -587,16 +587,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, -4), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>98.55064406238407</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="11">
@@ -623,16 +623,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (4, 12), (-4, 12), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>67.77708763999664</v>
+        <v>85.37520932501253</v>
       </c>
     </row>
     <row r="13">
@@ -659,16 +659,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 5), (4, 12), (-4, 12), (-4, -4), (4, 12), (-4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67.77708763999664</v>
+        <v>102.0292258165963</v>
       </c>
     </row>
     <row r="14">
@@ -677,16 +677,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>105.275322031192</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +695,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (-4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>128.8294973111853</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="16">
@@ -713,16 +713,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (0, 20), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>118.3277317023807</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="17">
@@ -731,16 +731,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 3 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (-4, -4), (4, 12), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67.77708763999664</v>
+        <v>81.83703435555695</v>
       </c>
     </row>
     <row r="18">
@@ -749,16 +749,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="19">
@@ -767,16 +767,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (0, 20), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>213.7145099135744</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 5 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (4, 12), (-4, 12), (-4, -4), (4, -4), (6, 5), (0, -12)]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67.77708763999664</v>
+        <v>84.19157274461199</v>
       </c>
     </row>
     <row r="21">
@@ -803,16 +803,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="22">
@@ -821,16 +821,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (4, -4), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67.77708763999664</v>
+        <v>84.27674198657004</v>
       </c>
     </row>
     <row r="23">
@@ -839,16 +839,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +857,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[(0, -12), (0, 20), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>235.9933631623757</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="25">
@@ -875,16 +875,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>105.275322031192</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="26">
@@ -893,16 +893,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 4 -&gt; 3 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (6, 5), (4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67.77708763999664</v>
+        <v>79.76340749158426</v>
       </c>
     </row>
     <row r="27">
@@ -911,16 +911,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 3 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (-4, -4), (4, 12), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>67.77708763999664</v>
+        <v>81.83703435555695</v>
       </c>
     </row>
     <row r="28">
@@ -929,16 +929,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="29">
@@ -947,16 +947,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="30">
@@ -965,16 +965,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 5), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67.77708763999664</v>
+        <v>58.38819816657173</v>
       </c>
     </row>
     <row r="31">
@@ -983,16 +983,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 1 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (-4, -4), (6, 5), (4, 12), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>131.1638658511903</v>
+        <v>70.00905596754626</v>
       </c>
     </row>
   </sheetData>
